--- a/3SI_GS_2/Governanca/FerramentaFPA-ProfRJP-Manual-HEALTHTIE.xlsx
+++ b/3SI_GS_2/Governanca/FerramentaFPA-ProfRJP-Manual-HEALTHTIE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7837dde25ad4926/Documentos/FIAP_CHALLENGE_FORD/3SI_GS_2/Governanca/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codigos\Git\FIAP_3SI\3SI_GS_2\Governanca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{1D918111-0640-4412-A7C1-0F235BB068D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A1604D9-0DE2-447F-B1FD-F2A2152667BC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571DFC19-CE1F-476A-8A32-5BC73DAF61D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18735" yWindow="0" windowWidth="18735" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pontos Nao Ajustados" sheetId="1" r:id="rId1"/>
@@ -1670,43 +1670,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="52.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="12">
         <f>SUM(H9:H241)</f>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>54</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>55</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>61</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>57</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>58</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>59</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>60</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>56</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>62</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>63</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>64</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>100</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>65</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>66</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="31" customFormat="1" ht="288" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="31" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>101</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>67</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>68</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="31" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
         <v>69</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="31" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="31" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>70</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>71</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>72</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>73</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>74</v>
       </c>
@@ -2346,13 +2346,13 @@
         <v>7</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H31" s="30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>75</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>76</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>109</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>77</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>78</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>79</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>80</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>81</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="31" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="31" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>135</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>82</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>83</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>84</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>85</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>86</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>87</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="31" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="31" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>142</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>88</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
       <c r="B49" s="33"/>
       <c r="C49" s="32"/>
@@ -2804,7 +2804,7 @@
       <c r="G49" s="33"/>
       <c r="H49" s="30"/>
     </row>
-    <row r="50" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32"/>
       <c r="B50" s="33"/>
       <c r="C50" s="32"/>
@@ -2814,7 +2814,7 @@
       <c r="G50" s="33"/>
       <c r="H50" s="30"/>
     </row>
-    <row r="51" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32"/>
       <c r="B51" s="33"/>
       <c r="C51" s="32"/>
@@ -2824,7 +2824,7 @@
       <c r="G51" s="33"/>
       <c r="H51" s="30"/>
     </row>
-    <row r="52" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="32"/>
       <c r="B52" s="33"/>
       <c r="C52" s="32"/>
@@ -2834,7 +2834,7 @@
       <c r="G52" s="33"/>
       <c r="H52" s="30"/>
     </row>
-    <row r="53" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
       <c r="B53" s="33"/>
       <c r="C53" s="32"/>
@@ -2844,7 +2844,7 @@
       <c r="G53" s="33"/>
       <c r="H53" s="30"/>
     </row>
-    <row r="54" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32"/>
       <c r="B54" s="33"/>
       <c r="C54" s="32"/>
@@ -2854,7 +2854,7 @@
       <c r="G54" s="33"/>
       <c r="H54" s="30"/>
     </row>
-    <row r="55" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
       <c r="B55" s="33"/>
       <c r="C55" s="32"/>
@@ -2864,7 +2864,7 @@
       <c r="G55" s="33"/>
       <c r="H55" s="30"/>
     </row>
-    <row r="56" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32"/>
       <c r="B56" s="33"/>
       <c r="C56" s="32"/>
@@ -2874,7 +2874,7 @@
       <c r="G56" s="33"/>
       <c r="H56" s="30"/>
     </row>
-    <row r="57" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32"/>
       <c r="B57" s="33"/>
       <c r="C57" s="32"/>
@@ -2884,7 +2884,7 @@
       <c r="G57" s="33"/>
       <c r="H57" s="30"/>
     </row>
-    <row r="58" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32"/>
       <c r="B58" s="33"/>
       <c r="C58" s="32"/>
@@ -2894,7 +2894,7 @@
       <c r="G58" s="33"/>
       <c r="H58" s="30"/>
     </row>
-    <row r="59" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
       <c r="B59" s="33"/>
       <c r="C59" s="32"/>
@@ -2904,7 +2904,7 @@
       <c r="G59" s="33"/>
       <c r="H59" s="30"/>
     </row>
-    <row r="60" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="32"/>
       <c r="B60" s="33"/>
       <c r="C60" s="32"/>
@@ -2914,7 +2914,7 @@
       <c r="G60" s="33"/>
       <c r="H60" s="30"/>
     </row>
-    <row r="61" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="32"/>
       <c r="B61" s="33"/>
       <c r="C61" s="32"/>
@@ -2924,7 +2924,7 @@
       <c r="G61" s="33"/>
       <c r="H61" s="30"/>
     </row>
-    <row r="62" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32"/>
       <c r="B62" s="33"/>
       <c r="C62" s="32"/>
@@ -2934,7 +2934,7 @@
       <c r="G62" s="33"/>
       <c r="H62" s="30"/>
     </row>
-    <row r="63" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
       <c r="B63" s="33"/>
       <c r="C63" s="32"/>
@@ -2944,7 +2944,7 @@
       <c r="G63" s="33"/>
       <c r="H63" s="30"/>
     </row>
-    <row r="64" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
       <c r="B64" s="33"/>
       <c r="C64" s="32"/>
@@ -2954,7 +2954,7 @@
       <c r="G64" s="33"/>
       <c r="H64" s="30"/>
     </row>
-    <row r="65" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="32"/>
       <c r="B65" s="33"/>
       <c r="C65" s="32"/>
@@ -2964,7 +2964,7 @@
       <c r="G65" s="33"/>
       <c r="H65" s="30"/>
     </row>
-    <row r="66" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
       <c r="B66" s="33"/>
       <c r="C66" s="32"/>
@@ -2974,7 +2974,7 @@
       <c r="G66" s="33"/>
       <c r="H66" s="30"/>
     </row>
-    <row r="67" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="32"/>
       <c r="B67" s="33"/>
       <c r="C67" s="32"/>
@@ -2984,7 +2984,7 @@
       <c r="G67" s="33"/>
       <c r="H67" s="30"/>
     </row>
-    <row r="68" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
       <c r="B68" s="33"/>
       <c r="C68" s="32"/>
@@ -2994,7 +2994,7 @@
       <c r="G68" s="33"/>
       <c r="H68" s="30"/>
     </row>
-    <row r="69" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
       <c r="B69" s="33"/>
       <c r="C69" s="32"/>
@@ -3004,7 +3004,7 @@
       <c r="G69" s="33"/>
       <c r="H69" s="30"/>
     </row>
-    <row r="70" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="32"/>
       <c r="B70" s="33"/>
       <c r="C70" s="32"/>
@@ -3014,7 +3014,7 @@
       <c r="G70" s="33"/>
       <c r="H70" s="30"/>
     </row>
-    <row r="71" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="32"/>
       <c r="B71" s="33"/>
       <c r="C71" s="32"/>
@@ -3024,7 +3024,7 @@
       <c r="G71" s="33"/>
       <c r="H71" s="30"/>
     </row>
-    <row r="72" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="32"/>
       <c r="B72" s="33"/>
       <c r="C72" s="32"/>
@@ -3034,7 +3034,7 @@
       <c r="G72" s="33"/>
       <c r="H72" s="30"/>
     </row>
-    <row r="73" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="32"/>
       <c r="B73" s="33"/>
       <c r="C73" s="32"/>
@@ -3044,7 +3044,7 @@
       <c r="G73" s="33"/>
       <c r="H73" s="30"/>
     </row>
-    <row r="74" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="32"/>
       <c r="B74" s="33"/>
       <c r="C74" s="32"/>
@@ -3054,7 +3054,7 @@
       <c r="G74" s="33"/>
       <c r="H74" s="30"/>
     </row>
-    <row r="75" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="32"/>
       <c r="B75" s="33"/>
       <c r="C75" s="32"/>
@@ -3064,7 +3064,7 @@
       <c r="G75" s="33"/>
       <c r="H75" s="30"/>
     </row>
-    <row r="76" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
       <c r="B76" s="33"/>
       <c r="C76" s="32"/>
@@ -3074,7 +3074,7 @@
       <c r="G76" s="33"/>
       <c r="H76" s="30"/>
     </row>
-    <row r="77" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
       <c r="B77" s="33"/>
       <c r="C77" s="32"/>
@@ -3084,7 +3084,7 @@
       <c r="G77" s="33"/>
       <c r="H77" s="30"/>
     </row>
-    <row r="78" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
       <c r="B78" s="33"/>
       <c r="C78" s="32"/>
@@ -3094,7 +3094,7 @@
       <c r="G78" s="33"/>
       <c r="H78" s="30"/>
     </row>
-    <row r="79" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="32"/>
       <c r="B79" s="33"/>
       <c r="C79" s="32"/>
@@ -3104,7 +3104,7 @@
       <c r="G79" s="33"/>
       <c r="H79" s="30"/>
     </row>
-    <row r="80" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
       <c r="B80" s="33"/>
       <c r="C80" s="32"/>
@@ -3114,7 +3114,7 @@
       <c r="G80" s="33"/>
       <c r="H80" s="30"/>
     </row>
-    <row r="81" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
       <c r="B81" s="33"/>
       <c r="C81" s="32"/>
@@ -3124,7 +3124,7 @@
       <c r="G81" s="33"/>
       <c r="H81" s="30"/>
     </row>
-    <row r="82" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
       <c r="B82" s="33"/>
       <c r="C82" s="32"/>
@@ -3134,7 +3134,7 @@
       <c r="G82" s="33"/>
       <c r="H82" s="30"/>
     </row>
-    <row r="83" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="32"/>
       <c r="B83" s="33"/>
       <c r="C83" s="32"/>
@@ -3144,7 +3144,7 @@
       <c r="G83" s="33"/>
       <c r="H83" s="30"/>
     </row>
-    <row r="84" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
       <c r="B84" s="33"/>
       <c r="C84" s="32"/>
@@ -3154,7 +3154,7 @@
       <c r="G84" s="33"/>
       <c r="H84" s="30"/>
     </row>
-    <row r="85" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="32"/>
       <c r="B85" s="33"/>
       <c r="C85" s="32"/>
@@ -3164,7 +3164,7 @@
       <c r="G85" s="33"/>
       <c r="H85" s="30"/>
     </row>
-    <row r="86" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="32"/>
       <c r="B86" s="33"/>
       <c r="C86" s="32"/>
@@ -3174,7 +3174,7 @@
       <c r="G86" s="33"/>
       <c r="H86" s="30"/>
     </row>
-    <row r="87" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="32"/>
       <c r="B87" s="33"/>
       <c r="C87" s="32"/>
@@ -3184,7 +3184,7 @@
       <c r="G87" s="33"/>
       <c r="H87" s="30"/>
     </row>
-    <row r="88" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="32"/>
       <c r="B88" s="33"/>
       <c r="C88" s="32"/>
@@ -3194,7 +3194,7 @@
       <c r="G88" s="33"/>
       <c r="H88" s="30"/>
     </row>
-    <row r="89" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="B89" s="33"/>
       <c r="C89" s="32"/>
@@ -3204,7 +3204,7 @@
       <c r="G89" s="33"/>
       <c r="H89" s="30"/>
     </row>
-    <row r="90" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="32"/>
       <c r="B90" s="33"/>
       <c r="C90" s="32"/>
@@ -3214,7 +3214,7 @@
       <c r="G90" s="33"/>
       <c r="H90" s="30"/>
     </row>
-    <row r="91" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="32"/>
       <c r="B91" s="33"/>
       <c r="C91" s="32"/>
@@ -3224,7 +3224,7 @@
       <c r="G91" s="33"/>
       <c r="H91" s="30"/>
     </row>
-    <row r="92" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="32"/>
       <c r="B92" s="33"/>
       <c r="C92" s="32"/>
@@ -3234,7 +3234,7 @@
       <c r="G92" s="33"/>
       <c r="H92" s="30"/>
     </row>
-    <row r="93" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="32"/>
       <c r="B93" s="33"/>
       <c r="C93" s="32"/>
@@ -3244,7 +3244,7 @@
       <c r="G93" s="33"/>
       <c r="H93" s="30"/>
     </row>
-    <row r="94" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32"/>
       <c r="B94" s="33"/>
       <c r="C94" s="32"/>
@@ -3254,7 +3254,7 @@
       <c r="G94" s="33"/>
       <c r="H94" s="30"/>
     </row>
-    <row r="95" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="32"/>
       <c r="B95" s="33"/>
       <c r="C95" s="32"/>
@@ -3264,7 +3264,7 @@
       <c r="G95" s="33"/>
       <c r="H95" s="30"/>
     </row>
-    <row r="96" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32"/>
       <c r="B96" s="33"/>
       <c r="C96" s="32"/>
@@ -3274,7 +3274,7 @@
       <c r="G96" s="33"/>
       <c r="H96" s="30"/>
     </row>
-    <row r="97" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="32"/>
       <c r="B97" s="33"/>
       <c r="C97" s="32"/>
@@ -3284,7 +3284,7 @@
       <c r="G97" s="33"/>
       <c r="H97" s="30"/>
     </row>
-    <row r="98" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="32"/>
       <c r="B98" s="33"/>
       <c r="C98" s="32"/>
@@ -3294,7 +3294,7 @@
       <c r="G98" s="33"/>
       <c r="H98" s="30"/>
     </row>
-    <row r="99" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="32"/>
       <c r="B99" s="33"/>
       <c r="C99" s="32"/>
@@ -3304,7 +3304,7 @@
       <c r="G99" s="33"/>
       <c r="H99" s="30"/>
     </row>
-    <row r="100" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="32"/>
       <c r="B100" s="33"/>
       <c r="C100" s="32"/>
@@ -3314,7 +3314,7 @@
       <c r="G100" s="33"/>
       <c r="H100" s="30"/>
     </row>
-    <row r="101" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="32"/>
       <c r="B101" s="33"/>
       <c r="C101" s="32"/>
@@ -3324,7 +3324,7 @@
       <c r="G101" s="33"/>
       <c r="H101" s="30"/>
     </row>
-    <row r="102" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="32"/>
       <c r="B102" s="33"/>
       <c r="C102" s="32"/>
@@ -3334,7 +3334,7 @@
       <c r="G102" s="33"/>
       <c r="H102" s="30"/>
     </row>
-    <row r="103" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="32"/>
       <c r="B103" s="33"/>
       <c r="C103" s="32"/>
@@ -3344,7 +3344,7 @@
       <c r="G103" s="33"/>
       <c r="H103" s="30"/>
     </row>
-    <row r="104" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="32"/>
       <c r="B104" s="33"/>
       <c r="C104" s="32"/>
@@ -3354,7 +3354,7 @@
       <c r="G104" s="33"/>
       <c r="H104" s="30"/>
     </row>
-    <row r="105" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="32"/>
       <c r="B105" s="33"/>
       <c r="C105" s="32"/>
@@ -3364,7 +3364,7 @@
       <c r="G105" s="33"/>
       <c r="H105" s="30"/>
     </row>
-    <row r="106" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="32"/>
       <c r="B106" s="33"/>
       <c r="C106" s="32"/>
@@ -3374,7 +3374,7 @@
       <c r="G106" s="33"/>
       <c r="H106" s="30"/>
     </row>
-    <row r="107" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="32"/>
       <c r="B107" s="33"/>
       <c r="C107" s="32"/>
@@ -3384,7 +3384,7 @@
       <c r="G107" s="33"/>
       <c r="H107" s="30"/>
     </row>
-    <row r="108" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="32"/>
       <c r="B108" s="33"/>
       <c r="C108" s="32"/>
@@ -3394,7 +3394,7 @@
       <c r="G108" s="33"/>
       <c r="H108" s="30"/>
     </row>
-    <row r="109" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="32"/>
       <c r="B109" s="33"/>
       <c r="C109" s="32"/>
@@ -3404,7 +3404,7 @@
       <c r="G109" s="33"/>
       <c r="H109" s="30"/>
     </row>
-    <row r="110" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="32"/>
       <c r="B110" s="33"/>
       <c r="C110" s="32"/>
@@ -3414,7 +3414,7 @@
       <c r="G110" s="33"/>
       <c r="H110" s="30"/>
     </row>
-    <row r="111" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="32"/>
       <c r="B111" s="33"/>
       <c r="C111" s="32"/>
@@ -3424,7 +3424,7 @@
       <c r="G111" s="33"/>
       <c r="H111" s="30"/>
     </row>
-    <row r="112" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="32"/>
       <c r="B112" s="33"/>
       <c r="C112" s="32"/>
@@ -3434,7 +3434,7 @@
       <c r="G112" s="33"/>
       <c r="H112" s="30"/>
     </row>
-    <row r="113" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="32"/>
       <c r="B113" s="33"/>
       <c r="C113" s="32"/>
@@ -3444,7 +3444,7 @@
       <c r="G113" s="33"/>
       <c r="H113" s="30"/>
     </row>
-    <row r="114" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="32"/>
       <c r="B114" s="33"/>
       <c r="C114" s="32"/>
@@ -3454,7 +3454,7 @@
       <c r="G114" s="33"/>
       <c r="H114" s="30"/>
     </row>
-    <row r="115" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="32"/>
       <c r="B115" s="33"/>
       <c r="C115" s="32"/>
@@ -3464,7 +3464,7 @@
       <c r="G115" s="33"/>
       <c r="H115" s="30"/>
     </row>
-    <row r="116" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="32"/>
       <c r="B116" s="33"/>
       <c r="C116" s="32"/>
@@ -3474,7 +3474,7 @@
       <c r="G116" s="33"/>
       <c r="H116" s="30"/>
     </row>
-    <row r="117" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="32"/>
       <c r="B117" s="33"/>
       <c r="C117" s="32"/>
@@ -3484,7 +3484,7 @@
       <c r="G117" s="33"/>
       <c r="H117" s="30"/>
     </row>
-    <row r="118" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="32"/>
       <c r="B118" s="33"/>
       <c r="C118" s="32"/>
@@ -3494,7 +3494,7 @@
       <c r="G118" s="33"/>
       <c r="H118" s="30"/>
     </row>
-    <row r="119" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="32"/>
       <c r="B119" s="33"/>
       <c r="C119" s="32"/>
@@ -3504,7 +3504,7 @@
       <c r="G119" s="33"/>
       <c r="H119" s="30"/>
     </row>
-    <row r="120" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="32"/>
       <c r="B120" s="33"/>
       <c r="C120" s="32"/>
@@ -3514,7 +3514,7 @@
       <c r="G120" s="33"/>
       <c r="H120" s="30"/>
     </row>
-    <row r="121" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="32"/>
       <c r="B121" s="33"/>
       <c r="C121" s="32"/>
@@ -3524,7 +3524,7 @@
       <c r="G121" s="33"/>
       <c r="H121" s="30"/>
     </row>
-    <row r="122" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="32"/>
       <c r="B122" s="33"/>
       <c r="C122" s="32"/>
@@ -3534,7 +3534,7 @@
       <c r="G122" s="33"/>
       <c r="H122" s="30"/>
     </row>
-    <row r="123" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="32"/>
       <c r="B123" s="33"/>
       <c r="C123" s="32"/>
@@ -3544,7 +3544,7 @@
       <c r="G123" s="33"/>
       <c r="H123" s="30"/>
     </row>
-    <row r="124" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="32"/>
       <c r="B124" s="33"/>
       <c r="C124" s="32"/>
@@ -3554,7 +3554,7 @@
       <c r="G124" s="33"/>
       <c r="H124" s="30"/>
     </row>
-    <row r="125" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="32"/>
       <c r="B125" s="33"/>
       <c r="C125" s="32"/>
@@ -3564,7 +3564,7 @@
       <c r="G125" s="33"/>
       <c r="H125" s="30"/>
     </row>
-    <row r="126" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="32"/>
       <c r="B126" s="33"/>
       <c r="C126" s="32"/>
@@ -3574,7 +3574,7 @@
       <c r="G126" s="33"/>
       <c r="H126" s="30"/>
     </row>
-    <row r="127" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="32"/>
       <c r="B127" s="33"/>
       <c r="C127" s="32"/>
@@ -3584,7 +3584,7 @@
       <c r="G127" s="33"/>
       <c r="H127" s="30"/>
     </row>
-    <row r="128" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="32"/>
       <c r="B128" s="33"/>
       <c r="C128" s="32"/>
@@ -3594,7 +3594,7 @@
       <c r="G128" s="33"/>
       <c r="H128" s="30"/>
     </row>
-    <row r="129" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="32"/>
       <c r="B129" s="33"/>
       <c r="C129" s="32"/>
@@ -3604,7 +3604,7 @@
       <c r="G129" s="33"/>
       <c r="H129" s="30"/>
     </row>
-    <row r="130" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="32"/>
       <c r="B130" s="33"/>
       <c r="C130" s="32"/>
@@ -3614,7 +3614,7 @@
       <c r="G130" s="33"/>
       <c r="H130" s="30"/>
     </row>
-    <row r="131" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="32"/>
       <c r="B131" s="33"/>
       <c r="C131" s="32"/>
@@ -3624,7 +3624,7 @@
       <c r="G131" s="33"/>
       <c r="H131" s="30"/>
     </row>
-    <row r="132" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="32"/>
       <c r="B132" s="33"/>
       <c r="C132" s="32"/>
@@ -3634,7 +3634,7 @@
       <c r="G132" s="33"/>
       <c r="H132" s="30"/>
     </row>
-    <row r="133" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="32"/>
       <c r="B133" s="33"/>
       <c r="C133" s="32"/>
@@ -3644,7 +3644,7 @@
       <c r="G133" s="33"/>
       <c r="H133" s="30"/>
     </row>
-    <row r="134" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="32"/>
       <c r="B134" s="33"/>
       <c r="C134" s="32"/>
@@ -3654,7 +3654,7 @@
       <c r="G134" s="33"/>
       <c r="H134" s="30"/>
     </row>
-    <row r="135" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="32"/>
       <c r="B135" s="33"/>
       <c r="C135" s="32"/>
@@ -3664,7 +3664,7 @@
       <c r="G135" s="33"/>
       <c r="H135" s="30"/>
     </row>
-    <row r="136" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="32"/>
       <c r="B136" s="33"/>
       <c r="C136" s="32"/>
@@ -3674,7 +3674,7 @@
       <c r="G136" s="33"/>
       <c r="H136" s="30"/>
     </row>
-    <row r="137" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="32"/>
       <c r="B137" s="33"/>
       <c r="C137" s="32"/>
@@ -3684,7 +3684,7 @@
       <c r="G137" s="33"/>
       <c r="H137" s="30"/>
     </row>
-    <row r="138" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="32"/>
       <c r="B138" s="33"/>
       <c r="C138" s="32"/>
@@ -3694,7 +3694,7 @@
       <c r="G138" s="33"/>
       <c r="H138" s="30"/>
     </row>
-    <row r="139" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="32"/>
       <c r="B139" s="33"/>
       <c r="C139" s="32"/>
@@ -3704,7 +3704,7 @@
       <c r="G139" s="33"/>
       <c r="H139" s="30"/>
     </row>
-    <row r="140" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="32"/>
       <c r="B140" s="33"/>
       <c r="C140" s="32"/>
@@ -3714,7 +3714,7 @@
       <c r="G140" s="33"/>
       <c r="H140" s="30"/>
     </row>
-    <row r="141" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="32"/>
       <c r="B141" s="33"/>
       <c r="C141" s="32"/>
@@ -3724,7 +3724,7 @@
       <c r="G141" s="33"/>
       <c r="H141" s="30"/>
     </row>
-    <row r="142" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="32"/>
       <c r="B142" s="33"/>
       <c r="C142" s="32"/>
@@ -3734,7 +3734,7 @@
       <c r="G142" s="33"/>
       <c r="H142" s="30"/>
     </row>
-    <row r="143" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="32"/>
       <c r="B143" s="33"/>
       <c r="C143" s="32"/>
@@ -3744,7 +3744,7 @@
       <c r="G143" s="33"/>
       <c r="H143" s="30"/>
     </row>
-    <row r="144" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="32"/>
       <c r="B144" s="33"/>
       <c r="C144" s="32"/>
@@ -3754,7 +3754,7 @@
       <c r="G144" s="33"/>
       <c r="H144" s="30"/>
     </row>
-    <row r="145" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="32"/>
       <c r="B145" s="33"/>
       <c r="C145" s="32"/>
@@ -3764,7 +3764,7 @@
       <c r="G145" s="33"/>
       <c r="H145" s="30"/>
     </row>
-    <row r="146" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="32"/>
       <c r="B146" s="33"/>
       <c r="C146" s="32"/>
@@ -3774,7 +3774,7 @@
       <c r="G146" s="33"/>
       <c r="H146" s="30"/>
     </row>
-    <row r="147" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="32"/>
       <c r="B147" s="33"/>
       <c r="C147" s="32"/>
@@ -3784,7 +3784,7 @@
       <c r="G147" s="33"/>
       <c r="H147" s="30"/>
     </row>
-    <row r="148" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="32"/>
       <c r="B148" s="33"/>
       <c r="C148" s="32"/>
@@ -3794,7 +3794,7 @@
       <c r="G148" s="33"/>
       <c r="H148" s="30"/>
     </row>
-    <row r="149" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="32"/>
       <c r="B149" s="33"/>
       <c r="C149" s="32"/>
@@ -3804,7 +3804,7 @@
       <c r="G149" s="33"/>
       <c r="H149" s="30"/>
     </row>
-    <row r="150" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="32"/>
       <c r="B150" s="33"/>
       <c r="C150" s="32"/>
@@ -3814,7 +3814,7 @@
       <c r="G150" s="33"/>
       <c r="H150" s="30"/>
     </row>
-    <row r="151" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="32"/>
       <c r="B151" s="33"/>
       <c r="C151" s="32"/>
@@ -3824,7 +3824,7 @@
       <c r="G151" s="33"/>
       <c r="H151" s="30"/>
     </row>
-    <row r="152" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="32"/>
       <c r="B152" s="33"/>
       <c r="C152" s="32"/>
@@ -3834,7 +3834,7 @@
       <c r="G152" s="33"/>
       <c r="H152" s="30"/>
     </row>
-    <row r="153" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="32"/>
       <c r="B153" s="33"/>
       <c r="C153" s="32"/>
@@ -3844,7 +3844,7 @@
       <c r="G153" s="33"/>
       <c r="H153" s="30"/>
     </row>
-    <row r="154" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="32"/>
       <c r="B154" s="33"/>
       <c r="C154" s="32"/>
@@ -3854,7 +3854,7 @@
       <c r="G154" s="33"/>
       <c r="H154" s="30"/>
     </row>
-    <row r="155" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="32"/>
       <c r="B155" s="33"/>
       <c r="C155" s="32"/>
@@ -3864,7 +3864,7 @@
       <c r="G155" s="33"/>
       <c r="H155" s="30"/>
     </row>
-    <row r="156" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="32"/>
       <c r="B156" s="33"/>
       <c r="C156" s="32"/>
@@ -3874,7 +3874,7 @@
       <c r="G156" s="33"/>
       <c r="H156" s="30"/>
     </row>
-    <row r="157" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="32"/>
       <c r="B157" s="33"/>
       <c r="C157" s="32"/>
@@ -3884,7 +3884,7 @@
       <c r="G157" s="33"/>
       <c r="H157" s="30"/>
     </row>
-    <row r="158" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="32"/>
       <c r="B158" s="33"/>
       <c r="C158" s="32"/>
@@ -3894,7 +3894,7 @@
       <c r="G158" s="33"/>
       <c r="H158" s="30"/>
     </row>
-    <row r="159" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="32"/>
       <c r="B159" s="33"/>
       <c r="C159" s="32"/>
@@ -3904,7 +3904,7 @@
       <c r="G159" s="33"/>
       <c r="H159" s="30"/>
     </row>
-    <row r="160" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="32"/>
       <c r="B160" s="33"/>
       <c r="C160" s="32"/>
@@ -3914,7 +3914,7 @@
       <c r="G160" s="33"/>
       <c r="H160" s="30"/>
     </row>
-    <row r="161" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="32"/>
       <c r="B161" s="33"/>
       <c r="C161" s="32"/>
@@ -3924,7 +3924,7 @@
       <c r="G161" s="33"/>
       <c r="H161" s="30"/>
     </row>
-    <row r="162" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="32"/>
       <c r="B162" s="33"/>
       <c r="C162" s="32"/>
@@ -3934,7 +3934,7 @@
       <c r="G162" s="33"/>
       <c r="H162" s="30"/>
     </row>
-    <row r="163" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="32"/>
       <c r="B163" s="33"/>
       <c r="C163" s="32"/>
@@ -3944,7 +3944,7 @@
       <c r="G163" s="33"/>
       <c r="H163" s="30"/>
     </row>
-    <row r="164" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="32"/>
       <c r="B164" s="33"/>
       <c r="C164" s="32"/>
@@ -3954,7 +3954,7 @@
       <c r="G164" s="33"/>
       <c r="H164" s="30"/>
     </row>
-    <row r="165" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="32"/>
       <c r="B165" s="33"/>
       <c r="C165" s="32"/>
@@ -3964,7 +3964,7 @@
       <c r="G165" s="33"/>
       <c r="H165" s="30"/>
     </row>
-    <row r="166" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="32"/>
       <c r="B166" s="33"/>
       <c r="C166" s="32"/>
@@ -3974,7 +3974,7 @@
       <c r="G166" s="33"/>
       <c r="H166" s="30"/>
     </row>
-    <row r="167" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="32"/>
       <c r="B167" s="33"/>
       <c r="C167" s="32"/>
@@ -3984,7 +3984,7 @@
       <c r="G167" s="33"/>
       <c r="H167" s="30"/>
     </row>
-    <row r="168" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="32"/>
       <c r="B168" s="33"/>
       <c r="C168" s="32"/>
@@ -3994,7 +3994,7 @@
       <c r="G168" s="33"/>
       <c r="H168" s="30"/>
     </row>
-    <row r="169" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="32"/>
       <c r="B169" s="33"/>
       <c r="C169" s="32"/>
@@ -4004,7 +4004,7 @@
       <c r="G169" s="33"/>
       <c r="H169" s="30"/>
     </row>
-    <row r="170" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="32"/>
       <c r="B170" s="33"/>
       <c r="C170" s="32"/>
@@ -4014,7 +4014,7 @@
       <c r="G170" s="33"/>
       <c r="H170" s="30"/>
     </row>
-    <row r="171" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="32"/>
       <c r="B171" s="33"/>
       <c r="C171" s="32"/>
@@ -4024,7 +4024,7 @@
       <c r="G171" s="33"/>
       <c r="H171" s="30"/>
     </row>
-    <row r="172" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="32"/>
       <c r="B172" s="33"/>
       <c r="C172" s="32"/>
@@ -4034,7 +4034,7 @@
       <c r="G172" s="33"/>
       <c r="H172" s="30"/>
     </row>
-    <row r="173" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="32"/>
       <c r="B173" s="33"/>
       <c r="C173" s="32"/>
@@ -4044,7 +4044,7 @@
       <c r="G173" s="33"/>
       <c r="H173" s="30"/>
     </row>
-    <row r="174" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="32"/>
       <c r="B174" s="33"/>
       <c r="C174" s="32"/>
@@ -4054,7 +4054,7 @@
       <c r="G174" s="33"/>
       <c r="H174" s="30"/>
     </row>
-    <row r="175" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="32"/>
       <c r="B175" s="33"/>
       <c r="C175" s="32"/>
@@ -4064,7 +4064,7 @@
       <c r="G175" s="33"/>
       <c r="H175" s="30"/>
     </row>
-    <row r="176" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="32"/>
       <c r="B176" s="33"/>
       <c r="C176" s="32"/>
@@ -4074,7 +4074,7 @@
       <c r="G176" s="33"/>
       <c r="H176" s="30"/>
     </row>
-    <row r="177" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="32"/>
       <c r="B177" s="33"/>
       <c r="C177" s="32"/>
@@ -4084,7 +4084,7 @@
       <c r="G177" s="33"/>
       <c r="H177" s="30"/>
     </row>
-    <row r="178" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="32"/>
       <c r="B178" s="33"/>
       <c r="C178" s="32"/>
@@ -4094,7 +4094,7 @@
       <c r="G178" s="33"/>
       <c r="H178" s="30"/>
     </row>
-    <row r="179" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="32"/>
       <c r="B179" s="33"/>
       <c r="C179" s="32"/>
@@ -4104,7 +4104,7 @@
       <c r="G179" s="33"/>
       <c r="H179" s="30"/>
     </row>
-    <row r="180" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="32"/>
       <c r="B180" s="33"/>
       <c r="C180" s="32"/>
@@ -4114,7 +4114,7 @@
       <c r="G180" s="33"/>
       <c r="H180" s="30"/>
     </row>
-    <row r="181" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="32"/>
       <c r="B181" s="33"/>
       <c r="C181" s="32"/>
@@ -4124,7 +4124,7 @@
       <c r="G181" s="33"/>
       <c r="H181" s="30"/>
     </row>
-    <row r="182" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="32"/>
       <c r="B182" s="33"/>
       <c r="C182" s="32"/>
@@ -4134,7 +4134,7 @@
       <c r="G182" s="33"/>
       <c r="H182" s="30"/>
     </row>
-    <row r="183" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="32"/>
       <c r="B183" s="33"/>
       <c r="C183" s="32"/>
@@ -4144,7 +4144,7 @@
       <c r="G183" s="33"/>
       <c r="H183" s="30"/>
     </row>
-    <row r="184" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="32"/>
       <c r="B184" s="33"/>
       <c r="C184" s="32"/>
@@ -4154,7 +4154,7 @@
       <c r="G184" s="33"/>
       <c r="H184" s="30"/>
     </row>
-    <row r="185" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="32"/>
       <c r="B185" s="33"/>
       <c r="C185" s="32"/>
@@ -4164,7 +4164,7 @@
       <c r="G185" s="33"/>
       <c r="H185" s="30"/>
     </row>
-    <row r="186" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="32"/>
       <c r="B186" s="33"/>
       <c r="C186" s="32"/>
@@ -4174,7 +4174,7 @@
       <c r="G186" s="33"/>
       <c r="H186" s="30"/>
     </row>
-    <row r="187" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="32"/>
       <c r="B187" s="33"/>
       <c r="C187" s="32"/>
@@ -4184,7 +4184,7 @@
       <c r="G187" s="33"/>
       <c r="H187" s="30"/>
     </row>
-    <row r="188" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="32"/>
       <c r="B188" s="33"/>
       <c r="C188" s="32"/>
@@ -4194,7 +4194,7 @@
       <c r="G188" s="33"/>
       <c r="H188" s="30"/>
     </row>
-    <row r="189" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="32"/>
       <c r="B189" s="33"/>
       <c r="C189" s="32"/>
@@ -4204,7 +4204,7 @@
       <c r="G189" s="33"/>
       <c r="H189" s="30"/>
     </row>
-    <row r="190" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="32"/>
       <c r="B190" s="33"/>
       <c r="C190" s="32"/>
@@ -4214,7 +4214,7 @@
       <c r="G190" s="33"/>
       <c r="H190" s="30"/>
     </row>
-    <row r="191" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="32"/>
       <c r="B191" s="33"/>
       <c r="C191" s="32"/>
@@ -4224,7 +4224,7 @@
       <c r="G191" s="33"/>
       <c r="H191" s="30"/>
     </row>
-    <row r="192" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="32"/>
       <c r="B192" s="33"/>
       <c r="C192" s="32"/>
@@ -4234,7 +4234,7 @@
       <c r="G192" s="33"/>
       <c r="H192" s="30"/>
     </row>
-    <row r="193" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="32"/>
       <c r="B193" s="33"/>
       <c r="C193" s="32"/>
@@ -4244,7 +4244,7 @@
       <c r="G193" s="33"/>
       <c r="H193" s="30"/>
     </row>
-    <row r="194" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="32"/>
       <c r="B194" s="33"/>
       <c r="C194" s="32"/>
@@ -4254,7 +4254,7 @@
       <c r="G194" s="33"/>
       <c r="H194" s="30"/>
     </row>
-    <row r="195" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="32"/>
       <c r="B195" s="33"/>
       <c r="C195" s="32"/>
@@ -4264,7 +4264,7 @@
       <c r="G195" s="33"/>
       <c r="H195" s="30"/>
     </row>
-    <row r="196" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="32"/>
       <c r="B196" s="33"/>
       <c r="C196" s="32"/>
@@ -4274,7 +4274,7 @@
       <c r="G196" s="33"/>
       <c r="H196" s="30"/>
     </row>
-    <row r="197" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="32"/>
       <c r="B197" s="33"/>
       <c r="C197" s="32"/>
@@ -4284,7 +4284,7 @@
       <c r="G197" s="33"/>
       <c r="H197" s="30"/>
     </row>
-    <row r="198" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="32"/>
       <c r="B198" s="33"/>
       <c r="C198" s="32"/>
@@ -4294,7 +4294,7 @@
       <c r="G198" s="33"/>
       <c r="H198" s="30"/>
     </row>
-    <row r="199" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="32"/>
       <c r="B199" s="33"/>
       <c r="C199" s="32"/>
@@ -4304,7 +4304,7 @@
       <c r="G199" s="33"/>
       <c r="H199" s="30"/>
     </row>
-    <row r="200" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="32"/>
       <c r="B200" s="33"/>
       <c r="C200" s="32"/>
@@ -4314,7 +4314,7 @@
       <c r="G200" s="33"/>
       <c r="H200" s="30"/>
     </row>
-    <row r="201" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="32"/>
       <c r="B201" s="33"/>
       <c r="C201" s="32"/>
@@ -4324,7 +4324,7 @@
       <c r="G201" s="33"/>
       <c r="H201" s="30"/>
     </row>
-    <row r="202" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="32"/>
       <c r="B202" s="33"/>
       <c r="C202" s="32"/>
@@ -4334,7 +4334,7 @@
       <c r="G202" s="33"/>
       <c r="H202" s="30"/>
     </row>
-    <row r="203" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="32"/>
       <c r="B203" s="33"/>
       <c r="C203" s="32"/>
@@ -4344,7 +4344,7 @@
       <c r="G203" s="33"/>
       <c r="H203" s="30"/>
     </row>
-    <row r="204" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="32"/>
       <c r="B204" s="33"/>
       <c r="C204" s="32"/>
@@ -4354,7 +4354,7 @@
       <c r="G204" s="33"/>
       <c r="H204" s="30"/>
     </row>
-    <row r="205" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="32"/>
       <c r="B205" s="33"/>
       <c r="C205" s="32"/>
@@ -4364,7 +4364,7 @@
       <c r="G205" s="33"/>
       <c r="H205" s="30"/>
     </row>
-    <row r="206" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="32"/>
       <c r="B206" s="33"/>
       <c r="C206" s="32"/>
@@ -4374,7 +4374,7 @@
       <c r="G206" s="33"/>
       <c r="H206" s="30"/>
     </row>
-    <row r="207" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="32"/>
       <c r="B207" s="33"/>
       <c r="C207" s="32"/>
@@ -4384,7 +4384,7 @@
       <c r="G207" s="33"/>
       <c r="H207" s="30"/>
     </row>
-    <row r="208" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="32"/>
       <c r="B208" s="33"/>
       <c r="C208" s="32"/>
@@ -4394,7 +4394,7 @@
       <c r="G208" s="33"/>
       <c r="H208" s="30"/>
     </row>
-    <row r="209" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="32"/>
       <c r="B209" s="33"/>
       <c r="C209" s="32"/>
@@ -4404,7 +4404,7 @@
       <c r="G209" s="33"/>
       <c r="H209" s="30"/>
     </row>
-    <row r="210" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="32"/>
       <c r="B210" s="33"/>
       <c r="C210" s="32"/>
@@ -4414,7 +4414,7 @@
       <c r="G210" s="33"/>
       <c r="H210" s="30"/>
     </row>
-    <row r="211" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="32"/>
       <c r="B211" s="33"/>
       <c r="C211" s="32"/>
@@ -4424,7 +4424,7 @@
       <c r="G211" s="33"/>
       <c r="H211" s="30"/>
     </row>
-    <row r="212" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="32"/>
       <c r="B212" s="33"/>
       <c r="C212" s="32"/>
@@ -4434,7 +4434,7 @@
       <c r="G212" s="33"/>
       <c r="H212" s="30"/>
     </row>
-    <row r="213" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="32"/>
       <c r="B213" s="33"/>
       <c r="C213" s="32"/>
@@ -4444,7 +4444,7 @@
       <c r="G213" s="33"/>
       <c r="H213" s="30"/>
     </row>
-    <row r="214" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="32"/>
       <c r="B214" s="33"/>
       <c r="C214" s="32"/>
@@ -4454,7 +4454,7 @@
       <c r="G214" s="33"/>
       <c r="H214" s="30"/>
     </row>
-    <row r="215" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="32"/>
       <c r="B215" s="33"/>
       <c r="C215" s="32"/>
@@ -4464,7 +4464,7 @@
       <c r="G215" s="33"/>
       <c r="H215" s="30"/>
     </row>
-    <row r="216" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="32"/>
       <c r="B216" s="33"/>
       <c r="C216" s="32"/>
@@ -4474,7 +4474,7 @@
       <c r="G216" s="33"/>
       <c r="H216" s="30"/>
     </row>
-    <row r="217" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="32"/>
       <c r="B217" s="33"/>
       <c r="C217" s="32"/>
@@ -4484,7 +4484,7 @@
       <c r="G217" s="33"/>
       <c r="H217" s="30"/>
     </row>
-    <row r="218" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="32"/>
       <c r="B218" s="33"/>
       <c r="C218" s="32"/>
@@ -4494,7 +4494,7 @@
       <c r="G218" s="33"/>
       <c r="H218" s="30"/>
     </row>
-    <row r="219" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="32"/>
       <c r="B219" s="33"/>
       <c r="C219" s="32"/>
@@ -4504,7 +4504,7 @@
       <c r="G219" s="33"/>
       <c r="H219" s="30"/>
     </row>
-    <row r="220" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="32"/>
       <c r="B220" s="33"/>
       <c r="C220" s="32"/>
@@ -4514,7 +4514,7 @@
       <c r="G220" s="33"/>
       <c r="H220" s="30"/>
     </row>
-    <row r="221" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="32"/>
       <c r="B221" s="33"/>
       <c r="C221" s="32"/>
@@ -4524,7 +4524,7 @@
       <c r="G221" s="33"/>
       <c r="H221" s="30"/>
     </row>
-    <row r="222" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="32"/>
       <c r="B222" s="33"/>
       <c r="C222" s="32"/>
@@ -4534,7 +4534,7 @@
       <c r="G222" s="33"/>
       <c r="H222" s="30"/>
     </row>
-    <row r="223" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="32"/>
       <c r="B223" s="33"/>
       <c r="C223" s="32"/>
@@ -4544,7 +4544,7 @@
       <c r="G223" s="33"/>
       <c r="H223" s="30"/>
     </row>
-    <row r="224" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="32"/>
       <c r="B224" s="33"/>
       <c r="C224" s="32"/>
@@ -4554,7 +4554,7 @@
       <c r="G224" s="33"/>
       <c r="H224" s="30"/>
     </row>
-    <row r="225" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="32"/>
       <c r="B225" s="33"/>
       <c r="C225" s="32"/>
@@ -4564,7 +4564,7 @@
       <c r="G225" s="33"/>
       <c r="H225" s="30"/>
     </row>
-    <row r="226" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="32"/>
       <c r="B226" s="33"/>
       <c r="C226" s="32"/>
@@ -4574,7 +4574,7 @@
       <c r="G226" s="33"/>
       <c r="H226" s="30"/>
     </row>
-    <row r="227" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="32"/>
       <c r="B227" s="33"/>
       <c r="C227" s="32"/>
@@ -4584,7 +4584,7 @@
       <c r="G227" s="33"/>
       <c r="H227" s="30"/>
     </row>
-    <row r="228" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="32"/>
       <c r="B228" s="33"/>
       <c r="C228" s="32"/>
@@ -4594,7 +4594,7 @@
       <c r="G228" s="33"/>
       <c r="H228" s="30"/>
     </row>
-    <row r="229" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="32"/>
       <c r="B229" s="33"/>
       <c r="C229" s="32"/>
@@ -4604,7 +4604,7 @@
       <c r="G229" s="33"/>
       <c r="H229" s="30"/>
     </row>
-    <row r="230" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="32"/>
       <c r="B230" s="33"/>
       <c r="C230" s="32"/>
@@ -4614,7 +4614,7 @@
       <c r="G230" s="33"/>
       <c r="H230" s="30"/>
     </row>
-    <row r="231" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="32"/>
       <c r="B231" s="33"/>
       <c r="C231" s="32"/>
@@ -4624,7 +4624,7 @@
       <c r="G231" s="33"/>
       <c r="H231" s="30"/>
     </row>
-    <row r="232" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="32"/>
       <c r="B232" s="33"/>
       <c r="C232" s="32"/>
@@ -4634,7 +4634,7 @@
       <c r="G232" s="33"/>
       <c r="H232" s="30"/>
     </row>
-    <row r="233" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="32"/>
       <c r="B233" s="33"/>
       <c r="C233" s="32"/>
@@ -4644,7 +4644,7 @@
       <c r="G233" s="33"/>
       <c r="H233" s="30"/>
     </row>
-    <row r="234" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="32"/>
       <c r="B234" s="33"/>
       <c r="C234" s="32"/>
@@ -4654,7 +4654,7 @@
       <c r="G234" s="33"/>
       <c r="H234" s="30"/>
     </row>
-    <row r="235" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="32"/>
       <c r="B235" s="33"/>
       <c r="C235" s="32"/>
@@ -4664,7 +4664,7 @@
       <c r="G235" s="33"/>
       <c r="H235" s="30"/>
     </row>
-    <row r="236" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="32"/>
       <c r="B236" s="33"/>
       <c r="C236" s="32"/>
@@ -4674,7 +4674,7 @@
       <c r="G236" s="33"/>
       <c r="H236" s="30"/>
     </row>
-    <row r="237" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="32"/>
       <c r="B237" s="33"/>
       <c r="C237" s="32"/>
@@ -4684,7 +4684,7 @@
       <c r="G237" s="33"/>
       <c r="H237" s="30"/>
     </row>
-    <row r="238" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="32"/>
       <c r="B238" s="33"/>
       <c r="C238" s="32"/>
@@ -4694,7 +4694,7 @@
       <c r="G238" s="33"/>
       <c r="H238" s="30"/>
     </row>
-    <row r="239" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="32"/>
       <c r="B239" s="33"/>
       <c r="C239" s="32"/>
@@ -4704,7 +4704,7 @@
       <c r="G239" s="33"/>
       <c r="H239" s="30"/>
     </row>
-    <row r="240" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="32"/>
       <c r="B240" s="33"/>
       <c r="C240" s="32"/>
@@ -4714,7 +4714,7 @@
       <c r="G240" s="33"/>
       <c r="H240" s="30"/>
     </row>
-    <row r="241" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="32"/>
       <c r="B241" s="33"/>
       <c r="C241" s="32"/>
@@ -4752,30 +4752,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
         <v>43</v>
       </c>
@@ -4787,114 +4787,142 @@
       </c>
       <c r="F5">
         <f>0.65+(0.01*C20)</f>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="22"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="23">
+        <v>0</v>
+      </c>
       <c r="E7" t="s">
         <v>49</v>
       </c>
       <c r="F7">
         <f>'Pontos Nao Ajustados'!C5</f>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="23"/>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="C8" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="23">
+        <v>2</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="12">
         <f>F5*F7</f>
-        <v>127.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>205.92000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="23"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="23"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="23"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="23"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="23"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="23"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="23"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="23"/>
-    </row>
-    <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="24"/>
-    </row>
-    <row r="20" spans="2:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="14">
         <f>SUM(C6:C19)</f>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4921,19 +4949,19 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="69.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="69.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>25</v>
       </c>
@@ -4941,3051 +4969,3051 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="26"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="26"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="26"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="26"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="26"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="26"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="26"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="26"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="26"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="26"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="26"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="26"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="26"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="26"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="26"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="26"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="26"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="26"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="26"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="26"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="26"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="26"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="26"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="26"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="26"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="26"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="26"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="26"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="26"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="26"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="26"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="26"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="26"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="26"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="26"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="26"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="26"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="26"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="26"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="26"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="B54" s="26"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="26"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="26"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="B57" s="26"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="B58" s="26"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
       <c r="B59" s="26"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
       <c r="B60" s="26"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
       <c r="B61" s="26"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
       <c r="B62" s="26"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
       <c r="B63" s="26"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
       <c r="B64" s="26"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
       <c r="B65" s="26"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
       <c r="B66" s="26"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
       <c r="B67" s="26"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
       <c r="B68" s="26"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69" s="26"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
       <c r="B70" s="26"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
       <c r="B71" s="26"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
       <c r="B72" s="26"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
       <c r="B73" s="26"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="25"/>
       <c r="B74" s="26"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="25"/>
       <c r="B75" s="26"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="25"/>
       <c r="B76" s="26"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="25"/>
       <c r="B77" s="26"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
       <c r="B78" s="26"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="25"/>
       <c r="B79" s="26"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="25"/>
       <c r="B80" s="26"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="25"/>
       <c r="B81" s="26"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="25"/>
       <c r="B82" s="26"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="25"/>
       <c r="B83" s="26"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="25"/>
       <c r="B84" s="26"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
       <c r="B85" s="26"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
       <c r="B86" s="26"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="25"/>
       <c r="B87" s="26"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="25"/>
       <c r="B88" s="26"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="25"/>
       <c r="B89" s="26"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="25"/>
       <c r="B90" s="26"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="25"/>
       <c r="B91" s="26"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="25"/>
       <c r="B92" s="26"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="25"/>
       <c r="B93" s="26"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="25"/>
       <c r="B94" s="26"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="25"/>
       <c r="B95" s="26"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="25"/>
       <c r="B96" s="26"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
       <c r="B97" s="26"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="25"/>
       <c r="B98" s="26"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="25"/>
       <c r="B99" s="26"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
       <c r="B100" s="26"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="25"/>
       <c r="B101" s="26"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="25"/>
       <c r="B102" s="26"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="25"/>
       <c r="B103" s="26"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="25"/>
       <c r="B104" s="26"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="25"/>
       <c r="B105" s="26"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="25"/>
       <c r="B106" s="26"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="25"/>
       <c r="B107" s="26"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="25"/>
       <c r="B108" s="26"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="25"/>
       <c r="B109" s="26"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="25"/>
       <c r="B110" s="26"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="25"/>
       <c r="B111" s="26"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="25"/>
       <c r="B112" s="26"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="25"/>
       <c r="B113" s="26"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="25"/>
       <c r="B114" s="26"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="25"/>
       <c r="B115" s="26"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="25"/>
       <c r="B116" s="26"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="25"/>
       <c r="B117" s="26"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="25"/>
       <c r="B118" s="26"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="25"/>
       <c r="B119" s="26"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="25"/>
       <c r="B120" s="26"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="25"/>
       <c r="B121" s="26"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="25"/>
       <c r="B122" s="26"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="25"/>
       <c r="B123" s="26"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="25"/>
       <c r="B124" s="26"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="25"/>
       <c r="B125" s="26"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="25"/>
       <c r="B126" s="26"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="25"/>
       <c r="B127" s="26"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="25"/>
       <c r="B128" s="26"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="25"/>
       <c r="B129" s="26"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="25"/>
       <c r="B130" s="26"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="25"/>
       <c r="B131" s="26"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="25"/>
       <c r="B132" s="26"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="25"/>
       <c r="B133" s="26"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="25"/>
       <c r="B134" s="26"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="25"/>
       <c r="B135" s="26"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="25"/>
       <c r="B136" s="26"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="25"/>
       <c r="B137" s="26"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="25"/>
       <c r="B138" s="26"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="25"/>
       <c r="B139" s="26"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="25"/>
       <c r="B140" s="26"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="25"/>
       <c r="B141" s="26"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="25"/>
       <c r="B142" s="26"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="25"/>
       <c r="B143" s="26"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="25"/>
       <c r="B144" s="26"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="25"/>
       <c r="B145" s="26"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="25"/>
       <c r="B146" s="26"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="25"/>
       <c r="B147" s="26"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="25"/>
       <c r="B148" s="26"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="25"/>
       <c r="B149" s="26"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="25"/>
       <c r="B150" s="26"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="25"/>
       <c r="B151" s="26"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="25"/>
       <c r="B152" s="26"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="25"/>
       <c r="B153" s="26"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="25"/>
       <c r="B154" s="26"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="25"/>
       <c r="B155" s="26"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="25"/>
       <c r="B156" s="26"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="25"/>
       <c r="B157" s="26"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="25"/>
       <c r="B158" s="26"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="25"/>
       <c r="B159" s="26"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="25"/>
       <c r="B160" s="26"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="25"/>
       <c r="B161" s="26"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="25"/>
       <c r="B162" s="26"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="25"/>
       <c r="B163" s="26"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="25"/>
       <c r="B164" s="26"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="25"/>
       <c r="B165" s="26"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="25"/>
       <c r="B166" s="26"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="25"/>
       <c r="B167" s="26"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="25"/>
       <c r="B168" s="26"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="25"/>
       <c r="B169" s="26"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="25"/>
       <c r="B170" s="26"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="25"/>
       <c r="B171" s="26"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="25"/>
       <c r="B172" s="26"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="25"/>
       <c r="B173" s="26"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="25"/>
       <c r="B174" s="26"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="25"/>
       <c r="B175" s="26"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="25"/>
       <c r="B176" s="26"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="25"/>
       <c r="B177" s="26"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="25"/>
       <c r="B178" s="26"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="25"/>
       <c r="B179" s="26"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="25"/>
       <c r="B180" s="26"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="25"/>
       <c r="B181" s="26"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="25"/>
       <c r="B182" s="26"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="25"/>
       <c r="B183" s="26"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="25"/>
       <c r="B184" s="26"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="25"/>
       <c r="B185" s="26"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="25"/>
       <c r="B186" s="26"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="25"/>
       <c r="B187" s="26"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="25"/>
       <c r="B188" s="26"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="25"/>
       <c r="B189" s="26"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="25"/>
       <c r="B190" s="26"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="25"/>
       <c r="B191" s="26"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="25"/>
       <c r="B192" s="26"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="25"/>
       <c r="B193" s="26"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="25"/>
       <c r="B194" s="26"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="25"/>
       <c r="B195" s="26"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="25"/>
       <c r="B196" s="26"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="25"/>
       <c r="B197" s="26"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="25"/>
       <c r="B198" s="26"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="25"/>
       <c r="B199" s="26"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="25"/>
       <c r="B200" s="26"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="25"/>
       <c r="B201" s="26"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="25"/>
       <c r="B202" s="26"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="25"/>
       <c r="B203" s="26"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="25"/>
       <c r="B204" s="26"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="25"/>
       <c r="B205" s="26"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="25"/>
       <c r="B206" s="26"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="25"/>
       <c r="B207" s="26"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="25"/>
       <c r="B208" s="26"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="25"/>
       <c r="B209" s="26"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="25"/>
       <c r="B210" s="26"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="25"/>
       <c r="B211" s="26"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="25"/>
       <c r="B212" s="26"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="25"/>
       <c r="B213" s="26"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="25"/>
       <c r="B214" s="26"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="25"/>
       <c r="B215" s="26"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="25"/>
       <c r="B216" s="26"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="25"/>
       <c r="B217" s="26"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="25"/>
       <c r="B218" s="26"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="25"/>
       <c r="B219" s="26"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="25"/>
       <c r="B220" s="26"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="25"/>
       <c r="B221" s="26"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="25"/>
       <c r="B222" s="26"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="25"/>
       <c r="B223" s="26"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="25"/>
       <c r="B224" s="26"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="25"/>
       <c r="B225" s="26"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="25"/>
       <c r="B226" s="26"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="25"/>
       <c r="B227" s="26"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="25"/>
       <c r="B228" s="26"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="25"/>
       <c r="B229" s="26"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="25"/>
       <c r="B230" s="26"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="25"/>
       <c r="B231" s="26"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="25"/>
       <c r="B232" s="26"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="25"/>
       <c r="B233" s="26"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="25"/>
       <c r="B234" s="26"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="25"/>
       <c r="B235" s="26"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="25"/>
       <c r="B236" s="26"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="25"/>
       <c r="B237" s="26"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="25"/>
       <c r="B238" s="26"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="25"/>
       <c r="B239" s="26"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="25"/>
       <c r="B240" s="26"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="25"/>
       <c r="B241" s="26"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="25"/>
       <c r="B242" s="26"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="25"/>
       <c r="B243" s="26"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="25"/>
       <c r="B244" s="26"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="25"/>
       <c r="B245" s="26"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="25"/>
       <c r="B246" s="26"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="25"/>
       <c r="B247" s="26"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="25"/>
       <c r="B248" s="26"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="25"/>
       <c r="B249" s="26"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="25"/>
       <c r="B250" s="26"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="25"/>
       <c r="B251" s="26"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="25"/>
       <c r="B252" s="26"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="25"/>
       <c r="B253" s="26"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="25"/>
       <c r="B254" s="26"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="25"/>
       <c r="B255" s="26"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="25"/>
       <c r="B256" s="26"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="25"/>
       <c r="B257" s="26"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="25"/>
       <c r="B258" s="26"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="25"/>
       <c r="B259" s="26"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="25"/>
       <c r="B260" s="26"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="25"/>
       <c r="B261" s="26"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="25"/>
       <c r="B262" s="26"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="25"/>
       <c r="B263" s="26"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="25"/>
       <c r="B264" s="26"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="25"/>
       <c r="B265" s="26"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="25"/>
       <c r="B266" s="26"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="25"/>
       <c r="B267" s="26"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="25"/>
       <c r="B268" s="26"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="25"/>
       <c r="B269" s="26"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="25"/>
       <c r="B270" s="26"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="25"/>
       <c r="B271" s="26"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="25"/>
       <c r="B272" s="26"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="25"/>
       <c r="B273" s="26"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="25"/>
       <c r="B274" s="26"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="25"/>
       <c r="B275" s="26"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="25"/>
       <c r="B276" s="26"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="25"/>
       <c r="B277" s="26"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="25"/>
       <c r="B278" s="26"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="25"/>
       <c r="B279" s="26"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="25"/>
       <c r="B280" s="26"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="25"/>
       <c r="B281" s="26"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="25"/>
       <c r="B282" s="26"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="25"/>
       <c r="B283" s="26"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="25"/>
       <c r="B284" s="26"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="25"/>
       <c r="B285" s="26"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="25"/>
       <c r="B286" s="26"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="25"/>
       <c r="B287" s="26"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="25"/>
       <c r="B288" s="26"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="25"/>
       <c r="B289" s="26"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="25"/>
       <c r="B290" s="26"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="25"/>
       <c r="B291" s="26"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="25"/>
       <c r="B292" s="26"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="25"/>
       <c r="B293" s="26"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="25"/>
       <c r="B294" s="26"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="25"/>
       <c r="B295" s="26"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="25"/>
       <c r="B296" s="26"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="25"/>
       <c r="B297" s="26"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="25"/>
       <c r="B298" s="26"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="25"/>
       <c r="B299" s="26"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="25"/>
       <c r="B300" s="26"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="25"/>
       <c r="B301" s="26"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="25"/>
       <c r="B302" s="26"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="25"/>
       <c r="B303" s="26"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="25"/>
       <c r="B304" s="26"/>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="25"/>
       <c r="B305" s="26"/>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="25"/>
       <c r="B306" s="26"/>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="25"/>
       <c r="B307" s="26"/>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="25"/>
       <c r="B308" s="26"/>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="25"/>
       <c r="B309" s="26"/>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="25"/>
       <c r="B310" s="26"/>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="25"/>
       <c r="B311" s="26"/>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="25"/>
       <c r="B312" s="26"/>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="25"/>
       <c r="B313" s="26"/>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="25"/>
       <c r="B314" s="26"/>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="25"/>
       <c r="B315" s="26"/>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="25"/>
       <c r="B316" s="26"/>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="25"/>
       <c r="B317" s="26"/>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="25"/>
       <c r="B318" s="26"/>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="25"/>
       <c r="B319" s="26"/>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="25"/>
       <c r="B320" s="26"/>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="25"/>
       <c r="B321" s="26"/>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="25"/>
       <c r="B322" s="26"/>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="25"/>
       <c r="B323" s="26"/>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="25"/>
       <c r="B324" s="26"/>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="25"/>
       <c r="B325" s="26"/>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="25"/>
       <c r="B326" s="26"/>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="25"/>
       <c r="B327" s="26"/>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="25"/>
       <c r="B328" s="26"/>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="25"/>
       <c r="B329" s="26"/>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="25"/>
       <c r="B330" s="26"/>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="25"/>
       <c r="B331" s="26"/>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="25"/>
       <c r="B332" s="26"/>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="25"/>
       <c r="B333" s="26"/>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="25"/>
       <c r="B334" s="26"/>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="25"/>
       <c r="B335" s="26"/>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="25"/>
       <c r="B336" s="26"/>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="25"/>
       <c r="B337" s="26"/>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="25"/>
       <c r="B338" s="26"/>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="25"/>
       <c r="B339" s="26"/>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="25"/>
       <c r="B340" s="26"/>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="25"/>
       <c r="B341" s="26"/>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="25"/>
       <c r="B342" s="26"/>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="25"/>
       <c r="B343" s="26"/>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="25"/>
       <c r="B344" s="26"/>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="25"/>
       <c r="B345" s="26"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="25"/>
       <c r="B346" s="26"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="25"/>
       <c r="B347" s="26"/>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="25"/>
       <c r="B348" s="26"/>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="25"/>
       <c r="B349" s="26"/>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="25"/>
       <c r="B350" s="26"/>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="25"/>
       <c r="B351" s="26"/>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="25"/>
       <c r="B352" s="26"/>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="25"/>
       <c r="B353" s="26"/>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="25"/>
       <c r="B354" s="26"/>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="25"/>
       <c r="B355" s="26"/>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="25"/>
       <c r="B356" s="26"/>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="25"/>
       <c r="B357" s="26"/>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="25"/>
       <c r="B358" s="26"/>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="25"/>
       <c r="B359" s="26"/>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="25"/>
       <c r="B360" s="26"/>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="25"/>
       <c r="B361" s="26"/>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="25"/>
       <c r="B362" s="26"/>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="25"/>
       <c r="B363" s="26"/>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="25"/>
       <c r="B364" s="26"/>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="25"/>
       <c r="B365" s="26"/>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="25"/>
       <c r="B366" s="26"/>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="25"/>
       <c r="B367" s="26"/>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="25"/>
       <c r="B368" s="26"/>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="25"/>
       <c r="B369" s="26"/>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="25"/>
       <c r="B370" s="26"/>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="25"/>
       <c r="B371" s="26"/>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="25"/>
       <c r="B372" s="26"/>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="25"/>
       <c r="B373" s="26"/>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="25"/>
       <c r="B374" s="26"/>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="25"/>
       <c r="B375" s="26"/>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="25"/>
       <c r="B376" s="26"/>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="25"/>
       <c r="B377" s="26"/>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="25"/>
       <c r="B378" s="26"/>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="25"/>
       <c r="B379" s="26"/>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="25"/>
       <c r="B380" s="26"/>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="25"/>
       <c r="B381" s="26"/>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="25"/>
       <c r="B382" s="26"/>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="25"/>
       <c r="B383" s="26"/>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="25"/>
       <c r="B384" s="26"/>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="25"/>
       <c r="B385" s="26"/>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="25"/>
       <c r="B386" s="26"/>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="25"/>
       <c r="B387" s="26"/>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="25"/>
       <c r="B388" s="26"/>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="25"/>
       <c r="B389" s="26"/>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="25"/>
       <c r="B390" s="26"/>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="25"/>
       <c r="B391" s="26"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="25"/>
       <c r="B392" s="26"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="25"/>
       <c r="B393" s="26"/>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="25"/>
       <c r="B394" s="26"/>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="25"/>
       <c r="B395" s="26"/>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="25"/>
       <c r="B396" s="26"/>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="25"/>
       <c r="B397" s="26"/>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="25"/>
       <c r="B398" s="26"/>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="25"/>
       <c r="B399" s="26"/>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="25"/>
       <c r="B400" s="26"/>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="25"/>
       <c r="B401" s="26"/>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="25"/>
       <c r="B402" s="26"/>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="25"/>
       <c r="B403" s="26"/>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="25"/>
       <c r="B404" s="26"/>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="25"/>
       <c r="B405" s="26"/>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="25"/>
       <c r="B406" s="26"/>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="25"/>
       <c r="B407" s="26"/>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="25"/>
       <c r="B408" s="26"/>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="25"/>
       <c r="B409" s="26"/>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="25"/>
       <c r="B410" s="26"/>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="25"/>
       <c r="B411" s="26"/>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="25"/>
       <c r="B412" s="26"/>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="25"/>
       <c r="B413" s="26"/>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="25"/>
       <c r="B414" s="26"/>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="25"/>
       <c r="B415" s="26"/>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="25"/>
       <c r="B416" s="26"/>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="25"/>
       <c r="B417" s="26"/>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="25"/>
       <c r="B418" s="26"/>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="25"/>
       <c r="B419" s="26"/>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="25"/>
       <c r="B420" s="26"/>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="25"/>
       <c r="B421" s="26"/>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="25"/>
       <c r="B422" s="26"/>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="25"/>
       <c r="B423" s="26"/>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="25"/>
       <c r="B424" s="26"/>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="25"/>
       <c r="B425" s="26"/>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="25"/>
       <c r="B426" s="26"/>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="25"/>
       <c r="B427" s="26"/>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="25"/>
       <c r="B428" s="26"/>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="25"/>
       <c r="B429" s="26"/>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="25"/>
       <c r="B430" s="26"/>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="25"/>
       <c r="B431" s="26"/>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="25"/>
       <c r="B432" s="26"/>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="25"/>
       <c r="B433" s="26"/>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="25"/>
       <c r="B434" s="26"/>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="25"/>
       <c r="B435" s="26"/>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="25"/>
       <c r="B436" s="26"/>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="25"/>
       <c r="B437" s="26"/>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="25"/>
       <c r="B438" s="26"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="25"/>
       <c r="B439" s="26"/>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="25"/>
       <c r="B440" s="26"/>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="25"/>
       <c r="B441" s="26"/>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="25"/>
       <c r="B442" s="26"/>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="25"/>
       <c r="B443" s="26"/>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="25"/>
       <c r="B444" s="26"/>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="25"/>
       <c r="B445" s="26"/>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="25"/>
       <c r="B446" s="26"/>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="25"/>
       <c r="B447" s="26"/>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="25"/>
       <c r="B448" s="26"/>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="25"/>
       <c r="B449" s="26"/>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="25"/>
       <c r="B450" s="26"/>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="25"/>
       <c r="B451" s="26"/>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="25"/>
       <c r="B452" s="26"/>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="25"/>
       <c r="B453" s="26"/>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="25"/>
       <c r="B454" s="26"/>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="25"/>
       <c r="B455" s="26"/>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="25"/>
       <c r="B456" s="26"/>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="25"/>
       <c r="B457" s="26"/>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="25"/>
       <c r="B458" s="26"/>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="25"/>
       <c r="B459" s="26"/>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="25"/>
       <c r="B460" s="26"/>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="25"/>
       <c r="B461" s="26"/>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="25"/>
       <c r="B462" s="26"/>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="25"/>
       <c r="B463" s="26"/>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="25"/>
       <c r="B464" s="26"/>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="25"/>
       <c r="B465" s="26"/>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="25"/>
       <c r="B466" s="26"/>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="25"/>
       <c r="B467" s="26"/>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="25"/>
       <c r="B468" s="26"/>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="25"/>
       <c r="B469" s="26"/>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="25"/>
       <c r="B470" s="26"/>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="25"/>
       <c r="B471" s="26"/>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="25"/>
       <c r="B472" s="26"/>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="25"/>
       <c r="B473" s="26"/>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="25"/>
       <c r="B474" s="26"/>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="25"/>
       <c r="B475" s="26"/>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="25"/>
       <c r="B476" s="26"/>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="25"/>
       <c r="B477" s="26"/>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="25"/>
       <c r="B478" s="26"/>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="25"/>
       <c r="B479" s="26"/>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="25"/>
       <c r="B480" s="26"/>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="25"/>
       <c r="B481" s="26"/>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="25"/>
       <c r="B482" s="26"/>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="25"/>
       <c r="B483" s="26"/>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="25"/>
       <c r="B484" s="26"/>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="25"/>
       <c r="B485" s="26"/>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="25"/>
       <c r="B486" s="26"/>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="25"/>
       <c r="B487" s="26"/>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="25"/>
       <c r="B488" s="26"/>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="25"/>
       <c r="B489" s="26"/>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="25"/>
       <c r="B490" s="26"/>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="25"/>
       <c r="B491" s="26"/>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="25"/>
       <c r="B492" s="26"/>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="25"/>
       <c r="B493" s="26"/>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="25"/>
       <c r="B494" s="26"/>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="25"/>
       <c r="B495" s="26"/>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="25"/>
       <c r="B496" s="26"/>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="25"/>
       <c r="B497" s="26"/>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="25"/>
       <c r="B498" s="26"/>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="25"/>
       <c r="B499" s="26"/>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="25"/>
       <c r="B500" s="26"/>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="25"/>
       <c r="B501" s="26"/>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="25"/>
       <c r="B502" s="26"/>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="25"/>
       <c r="B503" s="26"/>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="25"/>
       <c r="B504" s="26"/>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="25"/>
       <c r="B505" s="26"/>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="25"/>
       <c r="B506" s="26"/>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="25"/>
       <c r="B507" s="26"/>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="25"/>
       <c r="B508" s="26"/>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="25"/>
       <c r="B509" s="26"/>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="25"/>
       <c r="B510" s="26"/>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="25"/>
       <c r="B511" s="26"/>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="25"/>
       <c r="B512" s="26"/>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="25"/>
       <c r="B513" s="26"/>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="25"/>
       <c r="B514" s="26"/>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="25"/>
       <c r="B515" s="26"/>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="25"/>
       <c r="B516" s="26"/>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="25"/>
       <c r="B517" s="26"/>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="25"/>
       <c r="B518" s="26"/>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="25"/>
       <c r="B519" s="26"/>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="25"/>
       <c r="B520" s="26"/>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="25"/>
       <c r="B521" s="26"/>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="25"/>
       <c r="B522" s="26"/>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="25"/>
       <c r="B523" s="26"/>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="25"/>
       <c r="B524" s="26"/>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="25"/>
       <c r="B525" s="26"/>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="25"/>
       <c r="B526" s="26"/>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="25"/>
       <c r="B527" s="26"/>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="25"/>
       <c r="B528" s="26"/>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="25"/>
       <c r="B529" s="26"/>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="25"/>
       <c r="B530" s="26"/>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="25"/>
       <c r="B531" s="26"/>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="25"/>
       <c r="B532" s="26"/>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="25"/>
       <c r="B533" s="26"/>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="25"/>
       <c r="B534" s="26"/>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="25"/>
       <c r="B535" s="26"/>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="25"/>
       <c r="B536" s="26"/>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="25"/>
       <c r="B537" s="26"/>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="25"/>
       <c r="B538" s="26"/>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="25"/>
       <c r="B539" s="26"/>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="25"/>
       <c r="B540" s="26"/>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="25"/>
       <c r="B541" s="26"/>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="25"/>
       <c r="B542" s="26"/>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="25"/>
       <c r="B543" s="26"/>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="25"/>
       <c r="B544" s="26"/>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="25"/>
       <c r="B545" s="26"/>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="25"/>
       <c r="B546" s="26"/>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="25"/>
       <c r="B547" s="26"/>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="25"/>
       <c r="B548" s="26"/>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="25"/>
       <c r="B549" s="26"/>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="25"/>
       <c r="B550" s="26"/>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="25"/>
       <c r="B551" s="26"/>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="25"/>
       <c r="B552" s="26"/>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="25"/>
       <c r="B553" s="26"/>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="25"/>
       <c r="B554" s="26"/>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="25"/>
       <c r="B555" s="26"/>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="25"/>
       <c r="B556" s="26"/>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="25"/>
       <c r="B557" s="26"/>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="25"/>
       <c r="B558" s="26"/>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="25"/>
       <c r="B559" s="26"/>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="25"/>
       <c r="B560" s="26"/>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="25"/>
       <c r="B561" s="26"/>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="25"/>
       <c r="B562" s="26"/>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="25"/>
       <c r="B563" s="26"/>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="25"/>
       <c r="B564" s="26"/>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="25"/>
       <c r="B565" s="26"/>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="25"/>
       <c r="B566" s="26"/>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="25"/>
       <c r="B567" s="26"/>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="25"/>
       <c r="B568" s="26"/>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="25"/>
       <c r="B569" s="26"/>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="25"/>
       <c r="B570" s="26"/>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="25"/>
       <c r="B571" s="26"/>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="25"/>
       <c r="B572" s="26"/>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="25"/>
       <c r="B573" s="26"/>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="25"/>
       <c r="B574" s="26"/>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="25"/>
       <c r="B575" s="26"/>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="25"/>
       <c r="B576" s="26"/>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="25"/>
       <c r="B577" s="26"/>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="25"/>
       <c r="B578" s="26"/>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="25"/>
       <c r="B579" s="26"/>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="25"/>
       <c r="B580" s="26"/>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="25"/>
       <c r="B581" s="26"/>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="25"/>
       <c r="B582" s="26"/>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="25"/>
       <c r="B583" s="26"/>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="25"/>
       <c r="B584" s="26"/>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="25"/>
       <c r="B585" s="26"/>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="25"/>
       <c r="B586" s="26"/>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="25"/>
       <c r="B587" s="26"/>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="25"/>
       <c r="B588" s="26"/>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="25"/>
       <c r="B589" s="26"/>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="25"/>
       <c r="B590" s="26"/>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="25"/>
       <c r="B591" s="26"/>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="25"/>
       <c r="B592" s="26"/>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="25"/>
       <c r="B593" s="26"/>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="25"/>
       <c r="B594" s="26"/>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="25"/>
       <c r="B595" s="26"/>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="25"/>
       <c r="B596" s="26"/>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="25"/>
       <c r="B597" s="26"/>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="25"/>
       <c r="B598" s="26"/>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="25"/>
       <c r="B599" s="26"/>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="25"/>
       <c r="B600" s="26"/>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="25"/>
       <c r="B601" s="26"/>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="25"/>
       <c r="B602" s="26"/>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="25"/>
       <c r="B603" s="26"/>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="25"/>
       <c r="B604" s="26"/>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="25"/>
       <c r="B605" s="26"/>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="25"/>
       <c r="B606" s="26"/>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="25"/>
       <c r="B607" s="26"/>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="25"/>
       <c r="B608" s="26"/>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="25"/>
       <c r="B609" s="26"/>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="25"/>
       <c r="B610" s="26"/>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="25"/>
       <c r="B611" s="26"/>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="25"/>
       <c r="B612" s="26"/>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="25"/>
       <c r="B613" s="26"/>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="25"/>
       <c r="B614" s="26"/>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="25"/>
       <c r="B615" s="26"/>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="25"/>
       <c r="B616" s="26"/>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="25"/>
       <c r="B617" s="26"/>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="25"/>
       <c r="B618" s="26"/>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="25"/>
       <c r="B619" s="26"/>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="25"/>
       <c r="B620" s="26"/>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="25"/>
       <c r="B621" s="26"/>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="25"/>
       <c r="B622" s="26"/>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="25"/>
       <c r="B623" s="26"/>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="25"/>
       <c r="B624" s="26"/>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="25"/>
       <c r="B625" s="26"/>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="25"/>
       <c r="B626" s="26"/>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="25"/>
       <c r="B627" s="26"/>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="25"/>
       <c r="B628" s="26"/>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="25"/>
       <c r="B629" s="26"/>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="25"/>
       <c r="B630" s="26"/>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="25"/>
       <c r="B631" s="26"/>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="25"/>
       <c r="B632" s="26"/>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="25"/>
       <c r="B633" s="26"/>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="25"/>
       <c r="B634" s="26"/>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="25"/>
       <c r="B635" s="26"/>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="25"/>
       <c r="B636" s="26"/>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="25"/>
       <c r="B637" s="26"/>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="25"/>
       <c r="B638" s="26"/>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="25"/>
       <c r="B639" s="26"/>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="25"/>
       <c r="B640" s="26"/>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="25"/>
       <c r="B641" s="26"/>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="25"/>
       <c r="B642" s="26"/>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="25"/>
       <c r="B643" s="26"/>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="25"/>
       <c r="B644" s="26"/>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="25"/>
       <c r="B645" s="26"/>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="25"/>
       <c r="B646" s="26"/>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="25"/>
       <c r="B647" s="26"/>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="25"/>
       <c r="B648" s="26"/>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="25"/>
       <c r="B649" s="26"/>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="25"/>
       <c r="B650" s="26"/>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="25"/>
       <c r="B651" s="26"/>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="25"/>
       <c r="B652" s="26"/>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="25"/>
       <c r="B653" s="26"/>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="25"/>
       <c r="B654" s="26"/>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="25"/>
       <c r="B655" s="26"/>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="25"/>
       <c r="B656" s="26"/>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="25"/>
       <c r="B657" s="26"/>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="25"/>
       <c r="B658" s="26"/>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="25"/>
       <c r="B659" s="26"/>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="25"/>
       <c r="B660" s="26"/>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="25"/>
       <c r="B661" s="26"/>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="25"/>
       <c r="B662" s="26"/>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="25"/>
       <c r="B663" s="26"/>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="25"/>
       <c r="B664" s="26"/>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="25"/>
       <c r="B665" s="26"/>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="25"/>
       <c r="B666" s="26"/>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" s="25"/>
       <c r="B667" s="26"/>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="25"/>
       <c r="B668" s="26"/>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="25"/>
       <c r="B669" s="26"/>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="25"/>
       <c r="B670" s="26"/>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" s="25"/>
       <c r="B671" s="26"/>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" s="25"/>
       <c r="B672" s="26"/>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="25"/>
       <c r="B673" s="26"/>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="25"/>
       <c r="B674" s="26"/>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" s="25"/>
       <c r="B675" s="26"/>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="25"/>
       <c r="B676" s="26"/>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" s="25"/>
       <c r="B677" s="26"/>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="25"/>
       <c r="B678" s="26"/>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" s="25"/>
       <c r="B679" s="26"/>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" s="25"/>
       <c r="B680" s="26"/>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="25"/>
       <c r="B681" s="26"/>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="25"/>
       <c r="B682" s="26"/>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="25"/>
       <c r="B683" s="26"/>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" s="25"/>
       <c r="B684" s="26"/>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="25"/>
       <c r="B685" s="26"/>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="25"/>
       <c r="B686" s="26"/>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" s="25"/>
       <c r="B687" s="26"/>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="25"/>
       <c r="B688" s="26"/>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="25"/>
       <c r="B689" s="26"/>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="25"/>
       <c r="B690" s="26"/>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="25"/>
       <c r="B691" s="26"/>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" s="25"/>
       <c r="B692" s="26"/>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="25"/>
       <c r="B693" s="26"/>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" s="25"/>
       <c r="B694" s="26"/>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="25"/>
       <c r="B695" s="26"/>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="25"/>
       <c r="B696" s="26"/>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="25"/>
       <c r="B697" s="26"/>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" s="25"/>
       <c r="B698" s="26"/>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="25"/>
       <c r="B699" s="26"/>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="25"/>
       <c r="B700" s="26"/>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="25"/>
       <c r="B701" s="26"/>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="25"/>
       <c r="B702" s="26"/>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" s="25"/>
       <c r="B703" s="26"/>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" s="25"/>
       <c r="B704" s="26"/>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" s="25"/>
       <c r="B705" s="26"/>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" s="25"/>
       <c r="B706" s="26"/>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" s="25"/>
       <c r="B707" s="26"/>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" s="25"/>
       <c r="B708" s="26"/>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" s="25"/>
       <c r="B709" s="26"/>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" s="25"/>
       <c r="B710" s="26"/>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" s="25"/>
       <c r="B711" s="26"/>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" s="25"/>
       <c r="B712" s="26"/>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" s="25"/>
       <c r="B713" s="26"/>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" s="25"/>
       <c r="B714" s="26"/>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" s="25"/>
       <c r="B715" s="26"/>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" s="25"/>
       <c r="B716" s="26"/>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="25"/>
       <c r="B717" s="26"/>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" s="25"/>
       <c r="B718" s="26"/>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" s="25"/>
       <c r="B719" s="26"/>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" s="25"/>
       <c r="B720" s="26"/>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" s="25"/>
       <c r="B721" s="26"/>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="25"/>
       <c r="B722" s="26"/>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" s="25"/>
       <c r="B723" s="26"/>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" s="25"/>
       <c r="B724" s="26"/>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="25"/>
       <c r="B725" s="26"/>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" s="25"/>
       <c r="B726" s="26"/>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="25"/>
       <c r="B727" s="26"/>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="25"/>
       <c r="B728" s="26"/>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="25"/>
       <c r="B729" s="26"/>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="25"/>
       <c r="B730" s="26"/>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="25"/>
       <c r="B731" s="26"/>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="25"/>
       <c r="B732" s="26"/>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="25"/>
       <c r="B733" s="26"/>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="25"/>
       <c r="B734" s="26"/>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" s="25"/>
       <c r="B735" s="26"/>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="25"/>
       <c r="B736" s="26"/>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" s="25"/>
       <c r="B737" s="26"/>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="25"/>
       <c r="B738" s="26"/>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="25"/>
       <c r="B739" s="26"/>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="25"/>
       <c r="B740" s="26"/>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="25"/>
       <c r="B741" s="26"/>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="25"/>
       <c r="B742" s="26"/>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="25"/>
       <c r="B743" s="26"/>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="25"/>
       <c r="B744" s="26"/>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="25"/>
       <c r="B745" s="26"/>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="25"/>
       <c r="B746" s="26"/>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="25"/>
       <c r="B747" s="26"/>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="25"/>
       <c r="B748" s="26"/>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="25"/>
       <c r="B749" s="26"/>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="25"/>
       <c r="B750" s="26"/>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="25"/>
       <c r="B751" s="26"/>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" s="25"/>
       <c r="B752" s="26"/>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" s="25"/>
       <c r="B753" s="26"/>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" s="25"/>
       <c r="B754" s="26"/>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" s="25"/>
       <c r="B755" s="26"/>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" s="25"/>
       <c r="B756" s="26"/>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" s="25"/>
       <c r="B757" s="26"/>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" s="25"/>
       <c r="B758" s="26"/>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" s="25"/>
       <c r="B759" s="26"/>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" s="25"/>
       <c r="B760" s="26"/>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" s="25"/>
       <c r="B761" s="26"/>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" s="25"/>
       <c r="B762" s="26"/>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" s="25"/>
       <c r="B763" s="26"/>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" s="25"/>
       <c r="B764" s="26"/>
     </row>
-    <row r="765" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A765" s="27"/>
       <c r="B765" s="28"/>
     </row>
@@ -8004,7 +8032,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <sheetProtection password="DFE9" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8020,7 +8048,7 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <sheetProtection password="DFE9" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8036,12 +8064,12 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8058,7 +8086,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -8075,7 +8103,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -8092,7 +8120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -8109,7 +8137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -8123,7 +8151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -8137,7 +8165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>6</v>
       </c>
@@ -8148,7 +8176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>7</v>
       </c>
@@ -8156,7 +8184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>8</v>
       </c>
@@ -8164,962 +8192,962 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D165">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D167">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D169">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D170">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D174">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D175">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D176">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D178">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D179">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D180">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D181">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D182">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D183">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D184">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D185">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D186">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D187">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D188">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D189">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D190">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D191">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D192">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D193">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D194">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D195">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D196">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D197">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D198">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D199">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D200">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D201">
         <v>200</v>
       </c>

--- a/3SI_GS_2/Governanca/FerramentaFPA-ProfRJP-Manual-HEALTHTIE.xlsx
+++ b/3SI_GS_2/Governanca/FerramentaFPA-ProfRJP-Manual-HEALTHTIE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codigos\Git\FIAP_3SI\3SI_GS_2\Governanca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571DFC19-CE1F-476A-8A32-5BC73DAF61D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE2FE20-1B4D-4B0F-8E32-058F34C058C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18735" yWindow="0" windowWidth="18735" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18735" yWindow="0" windowWidth="18735" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pontos Nao Ajustados" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="150">
   <si>
     <t>FERRAMENTA DE ESTIATIVA DE PONTOS DE SOFTWARE POR ANÁLISE DE PONTOS DE FUNÇÃO (FPA - FUNCTION POINT ANALYSIS)</t>
   </si>
@@ -371,9 +371,6 @@
     <t>Frontend de Cadastro de Usuário</t>
   </si>
   <si>
-    <t xml:space="preserve">idUsuario, nome, dtNascimento, cpf, rg, convenio, login, senha </t>
-  </si>
-  <si>
     <t xml:space="preserve">idUsuario, idLembrete, titulo, descricao, dataHora, origem </t>
   </si>
   <si>
@@ -390,12 +387,6 @@
   </si>
   <si>
     <t xml:space="preserve"> idUsuario, idConfiguracao, idFamiliar, nivel, valorRestricao</t>
-  </si>
-  <si>
-    <t>idUsuario, nome, dtNascimento, cpf, rg, convenio, login, senha</t>
-  </si>
-  <si>
-    <t>idUsuario, nome, dtNascimento, cpf, rg, convenio, login</t>
   </si>
   <si>
     <t>idUsuario, idLembrete, titulo, descricao, dataHora, origem</t>
@@ -431,9 +422,6 @@
     <t>idEstabelecimento, nome, tipEstabelecimento, endereco, contato, status</t>
   </si>
   <si>
-    <t>dUsuario, atendimento.idAtendimento, atendimento.idEstabelecimento, atendimento.dataHora, atendimento.anotacoes, consulta.idConsulta, consulta.idMedico, consulta.anotacoes, receita.idReceita, receita.texto, Estabelecimento.nome, Estabelecimento.tipEstabelecimento, Estabelecimento.contato, Estabelecimento.status, medico.nome, medico.crm, medico.contato, medico.sexo</t>
-  </si>
-  <si>
     <t>idUsuario, idConfiguracao, idFamiliar, nivel, valorRestricao, nome,  tipParentesco</t>
   </si>
   <si>
@@ -452,9 +440,6 @@
     <t>Frontend de Consultas</t>
   </si>
   <si>
-    <t>nome, dtNascimento, cpf, rg, convenio, login, senha</t>
-  </si>
-  <si>
     <t>nome, atendimento.dataHora, medico.nome, estabelecimento.nome</t>
   </si>
   <si>
@@ -494,7 +479,19 @@
     <t>usuario.nome, atendimento.dataHora, atendimento.anotacoes, consulta.anotacoes, receita.texto, estabelescimento.nome, estabelescimento.tipEstabelescimento, estabelescimento.contato, estabelescimento.status, medico.nome, medico.crm, medico.contato, medico.sexo</t>
   </si>
   <si>
-    <t>nome, dtNascimento, cpf, rg, convenio, login</t>
+    <t>idUsuario, atendimento.idAtendimento, atendimento.idEstabelecimento, atendimento.dataHora, atendimento.anotacoes, consulta.idConsulta, consulta.idMedico, consulta.anotacoes, receita.idReceita, receita.texto, Estabelecimento.nome, Estabelecimento.tipEstabelecimento, Estabelecimento.contato, Estabelecimento.status, medico.nome, medico.crm, medico.contato, medico.sexo</t>
+  </si>
+  <si>
+    <t>idUsuario, nome, dtNascimento, cpf, rg, codServico, codPlano, cns, login, senha</t>
+  </si>
+  <si>
+    <t>idUsuario, nome, dtNascimento, cpf, rg, codServico, codPlano, cns, login</t>
+  </si>
+  <si>
+    <t>nome, dtNascimento, cpf, rg, codServico, codPlano, cns, login, senha</t>
+  </si>
+  <si>
+    <t>nome, dtNascimento, cpf, rg, codServico, codPlano, cns, login</t>
   </si>
 </sst>
 </file>
@@ -1670,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>54</v>
       </c>
@@ -1768,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="F9" s="30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>22</v>
@@ -1794,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" s="30">
         <v>6</v>
@@ -1820,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F11" s="30">
         <v>3</v>
@@ -1846,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F12" s="30">
         <v>7</v>
@@ -1872,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="30">
         <v>8</v>
@@ -1898,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14" s="30">
         <v>7</v>
@@ -1924,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="30">
         <v>6</v>
@@ -1950,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F16" s="30">
         <v>8</v>
@@ -1976,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F17" s="30">
         <v>5</v>
@@ -2002,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F18" s="30">
         <v>5</v>
@@ -2028,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" s="30">
         <v>5</v>
@@ -2054,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F20" s="30">
         <v>6</v>
@@ -2066,7 +2063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>65</v>
       </c>
@@ -2080,10 +2077,10 @@
         <v>1</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="F21" s="30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21" s="33" t="s">
         <v>22</v>
@@ -2092,7 +2089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>66</v>
       </c>
@@ -2106,10 +2103,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F22" s="30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>22</v>
@@ -2132,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F23" s="30">
         <v>27</v>
@@ -2158,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F24" s="30">
         <v>6</v>
@@ -2184,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F25" s="30">
         <v>6</v>
@@ -2207,13 +2204,13 @@
         <v>108</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>22</v>
@@ -2230,13 +2227,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D27" s="30">
         <v>5</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F27" s="30">
         <v>18</v>
@@ -2262,7 +2259,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F28" s="30">
         <v>3</v>
@@ -2288,7 +2285,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F29" s="30">
         <v>7</v>
@@ -2314,7 +2311,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F30" s="30">
         <v>7</v>
@@ -2340,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F31" s="30">
         <v>7</v>
@@ -2366,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F32" s="30">
         <v>6</v>
@@ -2392,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F33" s="30">
         <v>2</v>
@@ -2404,7 +2401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>109</v>
       </c>
@@ -2418,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F34" s="30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>22</v>
@@ -2444,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F35" s="30">
         <v>4</v>
@@ -2470,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F36" s="30">
         <v>3</v>
@@ -2496,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F37" s="30">
         <v>5</v>
@@ -2522,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F38" s="30">
         <v>9</v>
@@ -2548,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F39" s="30">
         <v>6</v>
@@ -2562,7 +2559,7 @@
     </row>
     <row r="40" spans="1:8" s="31" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B40" s="33" t="s">
         <v>5</v>
@@ -2574,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F40" s="30">
         <v>13</v>
@@ -2600,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F41" s="30">
         <v>5</v>
@@ -2626,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F42" s="30">
         <v>7</v>
@@ -2652,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F43" s="30">
         <v>4</v>
@@ -2678,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F44" s="30">
         <v>5</v>
@@ -2704,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F45" s="30">
         <v>5</v>
@@ -2730,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F46" s="30">
         <v>4</v>
@@ -2744,7 +2741,7 @@
     </row>
     <row r="47" spans="1:8" s="31" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B47" s="33" t="s">
         <v>5</v>
@@ -2756,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F47" s="30">
         <v>14</v>
@@ -2782,10 +2779,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F48" s="30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G48" s="33" t="s">
         <v>22</v>
@@ -4752,7 +4749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/3SI_GS_2/Governanca/FerramentaFPA-ProfRJP-Manual-HEALTHTIE.xlsx
+++ b/3SI_GS_2/Governanca/FerramentaFPA-ProfRJP-Manual-HEALTHTIE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codigos\Git\FIAP_3SI\3SI_GS_2\Governanca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE2FE20-1B4D-4B0F-8E32-058F34C058C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635BD997-704D-4CA9-93DB-C6EF1F7A00E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18735" yWindow="0" windowWidth="18735" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18735" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pontos Nao Ajustados" sheetId="1" r:id="rId1"/>
@@ -416,9 +416,6 @@
     <t>idUsuario, idAtendimento, idEstabelecimento, dataHora, anotacoes</t>
   </si>
   <si>
-    <t>idUsuario, consulta.idConsulta, consulta.especialidade, consulta.idMedico, consulta.dataHora, consulta.idEstabelecimento, consulta.anotacoes, exame.idExame, exame.nmExame, exame.dataHora, exame.status, exame.idEstabelecimento, medicamento.idMedicamento, medicamento.nmMedicamento, medicamento.qtd, medicamento.dose, medicamento.observacoes, medicamento.statusUso, vacina.idVacina, vacina.nmVacina, vacina.descricao, vacina.dataHora, vacina.numDose, receita.idReceita, receita.idMedico, receita.texto, receita.dataHora</t>
-  </si>
-  <si>
     <t>idEstabelecimento, nome, tipEstabelecimento, endereco, contato, status</t>
   </si>
   <si>
@@ -479,9 +476,6 @@
     <t>usuario.nome, atendimento.dataHora, atendimento.anotacoes, consulta.anotacoes, receita.texto, estabelescimento.nome, estabelescimento.tipEstabelescimento, estabelescimento.contato, estabelescimento.status, medico.nome, medico.crm, medico.contato, medico.sexo</t>
   </si>
   <si>
-    <t>idUsuario, atendimento.idAtendimento, atendimento.idEstabelecimento, atendimento.dataHora, atendimento.anotacoes, consulta.idConsulta, consulta.idMedico, consulta.anotacoes, receita.idReceita, receita.texto, Estabelecimento.nome, Estabelecimento.tipEstabelecimento, Estabelecimento.contato, Estabelecimento.status, medico.nome, medico.crm, medico.contato, medico.sexo</t>
-  </si>
-  <si>
     <t>idUsuario, nome, dtNascimento, cpf, rg, codServico, codPlano, cns, login, senha</t>
   </si>
   <si>
@@ -492,6 +486,12 @@
   </si>
   <si>
     <t>nome, dtNascimento, cpf, rg, codServico, codPlano, cns, login</t>
+  </si>
+  <si>
+    <t>idUsuario, consulta.idConsulta, consulta.especialidade, consulta.idMedico, consulta.dataHora, consulta.idEstabelecimento, consulta.anotacoes, exame.idExame, exame.nmExame, exame.dataHora, exame.status, exame.idEstabelecimento, medicamento.idMedicamento, medicamento.nmMedicamento, medicamento.qtd, medicamento.dose, medicamento.observacoes, medicamento.statusUso, vacina.idVacina, vacina.nmVacina, vacina.descricao, vacina.dataHora, vacina.numDose, receita.idReceita, receita.idMedico, receita.texto, receita.dataHora, estabelecimento.nome, estabelecimento.tipEstabelecimento, estabelecimento.endereco, estabelecimento.contato, estabelecimento.status, medico.nome, medico.crm, medico.contato, medico.sexo</t>
+  </si>
+  <si>
+    <t>idUsuario, atendimento.idAtendimento, atendimento.idEstabelecimento, atendimento.dataHora, atendimento.anotacoes, consulta.idConsulta, consulta.idMedico, consulta.anotacoes, receita.idReceita, receita.texto, estabelecimento.nome, estabelecimento.tipEstabelecimento, estabelecimento.contato, estabelecimento.status, medico.nome, medico.crm, medico.contato, medico.sexo</t>
   </si>
 </sst>
 </file>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F9" s="30">
         <v>10</v>
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11" s="30">
         <v>3</v>
@@ -2051,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" s="30">
         <v>6</v>
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F21" s="30">
         <v>10</v>
@@ -2103,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F22" s="30">
         <v>9</v>
@@ -2115,7 +2115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="31" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="31" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>101</v>
       </c>
@@ -2129,10 +2129,10 @@
         <v>5</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="F23" s="30">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>21</v>
@@ -2233,7 +2233,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F27" s="30">
         <v>18</v>
@@ -2259,7 +2259,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F28" s="30">
         <v>3</v>
@@ -2285,7 +2285,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29" s="30">
         <v>7</v>
@@ -2311,7 +2311,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F30" s="30">
         <v>7</v>
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31" s="30">
         <v>7</v>
@@ -2363,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F32" s="30">
         <v>6</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F33" s="30">
         <v>2</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F34" s="30">
         <v>9</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F35" s="30">
         <v>4</v>
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F36" s="30">
         <v>3</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F37" s="30">
         <v>5</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F38" s="30">
         <v>9</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F39" s="30">
         <v>6</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="40" spans="1:8" s="31" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B40" s="33" t="s">
         <v>5</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F40" s="30">
         <v>13</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F41" s="30">
         <v>5</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F42" s="30">
         <v>7</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F43" s="30">
         <v>4</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F44" s="30">
         <v>5</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F45" s="30">
         <v>5</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F46" s="30">
         <v>4</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="47" spans="1:8" s="31" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B47" s="33" t="s">
         <v>5</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F47" s="30">
         <v>14</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F48" s="30">
         <v>8</v>
